--- a/Readme/조현준.xlsx
+++ b/Readme/조현준.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조현준\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectUnity\TeamSummit\Readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF99DB-9C1F-43E0-AFA0-669233FE6795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8032F9B8-3EDE-48CA-B19D-02AE2E2CDC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28905" yWindow="180" windowWidth="19275" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="조현준" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1080,11 +1080,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,16 +1252,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1268,24 +1290,108 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,9 +1654,11 @@
   </sheetPr>
   <dimension ref="A1:AO990"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:T27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="T27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="X68" sqref="X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1565,12 +1673,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
@@ -1725,10 +1833,10 @@
       <c r="AO2" s="10"/>
     </row>
     <row r="3" spans="1:41" ht="14.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1778,8 +1886,8 @@
       <c r="AO3" s="10"/>
     </row>
     <row r="4" spans="1:41" ht="14.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1933,8 @@
       <c r="AO4" s="10"/>
     </row>
     <row r="5" spans="1:41" ht="14.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
@@ -1874,8 +1982,8 @@
       <c r="AO5" s="10"/>
     </row>
     <row r="6" spans="1:41" ht="14.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
@@ -1922,8 +2030,8 @@
       <c r="AO6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="14.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="29" t="s">
         <v>21</v>
       </c>
@@ -1970,8 +2078,8 @@
       <c r="AO7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="14.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
@@ -2018,8 +2126,8 @@
       <c r="AO8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="14.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="29" t="s">
         <v>25</v>
       </c>
@@ -2066,8 +2174,8 @@
       <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="28" t="s">
         <v>27</v>
       </c>
@@ -2112,8 +2220,8 @@
       <c r="AO10" s="10"/>
     </row>
     <row r="11" spans="1:41" ht="14.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="28" t="s">
         <v>28</v>
       </c>
@@ -2158,8 +2266,8 @@
       <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:41" ht="14.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="28" t="s">
         <v>29</v>
       </c>
@@ -2202,8 +2310,8 @@
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:41" ht="14.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="34" t="s">
         <v>30</v>
       </c>
@@ -2246,8 +2354,8 @@
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:41" ht="14.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="69"/>
       <c r="D14" s="21" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2397,8 @@
       <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:41" ht="14.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
@@ -2335,7 +2443,7 @@
       <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:41" ht="14.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="35" t="s">
         <v>34</v>
       </c>
@@ -2381,8 +2489,8 @@
       <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:41" ht="14.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -2428,8 +2536,8 @@
       <c r="AO17" s="10"/>
     </row>
     <row r="18" spans="1:41" ht="14.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="29" t="s">
         <v>40</v>
       </c>
@@ -2474,8 +2582,8 @@
       <c r="AO18" s="10"/>
     </row>
     <row r="19" spans="1:41" ht="14.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="38" t="s">
         <v>42</v>
       </c>
@@ -2519,8 +2627,8 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="14.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -2563,8 +2671,8 @@
       <c r="AO20" s="10"/>
     </row>
     <row r="21" spans="1:41" ht="14.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="28" t="s">
         <v>46</v>
       </c>
@@ -2605,8 +2713,8 @@
       <c r="AO21" s="10"/>
     </row>
     <row r="22" spans="1:41" ht="14.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="29" t="s">
         <v>24</v>
       </c>
@@ -2650,8 +2758,8 @@
       <c r="AO22" s="10"/>
     </row>
     <row r="23" spans="1:41" ht="14.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -2699,8 +2807,8 @@
       <c r="AO23" s="10"/>
     </row>
     <row r="24" spans="1:41" ht="14.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
@@ -2746,8 +2854,8 @@
       <c r="AO24" s="10"/>
     </row>
     <row r="25" spans="1:41" ht="14.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="36" t="s">
         <v>53</v>
       </c>
@@ -2793,8 +2901,8 @@
       <c r="AO25" s="10"/>
     </row>
     <row r="26" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="71" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -2842,8 +2950,8 @@
       <c r="AO26" s="10"/>
     </row>
     <row r="27" spans="1:41" ht="15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="43" t="s">
         <v>57</v>
       </c>
@@ -2889,7 +2997,7 @@
       <c r="AO27" s="10"/>
     </row>
     <row r="28" spans="1:41" ht="14.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="44" t="s">
         <v>58</v>
       </c>
@@ -2940,10 +3048,10 @@
       <c r="AO28" s="10"/>
     </row>
     <row r="29" spans="1:41" ht="15">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="70" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="47" t="s">
@@ -2991,8 +3099,8 @@
       <c r="AO29" s="10"/>
     </row>
     <row r="30" spans="1:41" ht="14.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="28" t="s">
         <v>64</v>
       </c>
@@ -3038,8 +3146,8 @@
       <c r="AO30" s="10"/>
     </row>
     <row r="31" spans="1:41" ht="14.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="36" t="s">
         <v>65</v>
       </c>
@@ -3084,8 +3192,8 @@
       <c r="AO31" s="10"/>
     </row>
     <row r="32" spans="1:41" ht="14.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="36" t="s">
         <v>66</v>
       </c>
@@ -3131,8 +3239,8 @@
       <c r="AO32" s="10"/>
     </row>
     <row r="33" spans="1:41" ht="14.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="28" t="s">
         <v>67</v>
       </c>
@@ -3178,8 +3286,8 @@
       <c r="AO33" s="10"/>
     </row>
     <row r="34" spans="1:41" ht="14.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="20" t="s">
         <v>68</v>
       </c>
@@ -3225,8 +3333,8 @@
       <c r="AO34" s="10"/>
     </row>
     <row r="35" spans="1:41" ht="14.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="74" t="s">
+      <c r="A35" s="74"/>
+      <c r="B35" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -3272,8 +3380,8 @@
       <c r="AO35" s="10"/>
     </row>
     <row r="36" spans="1:41" ht="15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="49" t="s">
         <v>70</v>
       </c>
@@ -3314,45 +3422,46 @@
       <c r="AO36" s="10"/>
     </row>
     <row r="37" spans="1:41" ht="14.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="80" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="86"/>
       <c r="AE37" s="31"/>
       <c r="AF37" s="10"/>
       <c r="AG37" s="10"/>
@@ -3366,42 +3475,42 @@
       <c r="AO37" s="10"/>
     </row>
     <row r="38" spans="1:41" ht="14.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="74"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="85"/>
       <c r="AE38" s="27"/>
       <c r="AF38" s="10"/>
       <c r="AG38" s="10"/>
@@ -3415,40 +3524,40 @@
       <c r="AO38" s="10"/>
     </row>
     <row r="39" spans="1:41" ht="14.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="80" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="84"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="85"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="85"/>
       <c r="AE39" s="27"/>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10"/>
@@ -3462,42 +3571,42 @@
       <c r="AO39" s="10"/>
     </row>
     <row r="40" spans="1:41" ht="14.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="20" t="s">
+      <c r="A40" s="74"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="80" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="84"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="85"/>
       <c r="AE40" s="27"/>
       <c r="AF40" s="10"/>
       <c r="AG40" s="10"/>
@@ -3511,42 +3620,42 @@
       <c r="AO40" s="10"/>
     </row>
     <row r="41" spans="1:41" ht="14.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="20" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="80" t="s">
         <v>75</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="84"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="85"/>
       <c r="AE41" s="27"/>
       <c r="AF41" s="10"/>
       <c r="AG41" s="10"/>
@@ -3560,40 +3669,40 @@
       <c r="AO41" s="10"/>
     </row>
     <row r="42" spans="1:41" ht="14.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="20" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="84"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="85"/>
       <c r="AE42" s="27"/>
       <c r="AF42" s="10"/>
       <c r="AG42" s="10"/>
@@ -3607,40 +3716,40 @@
       <c r="AO42" s="10"/>
     </row>
     <row r="43" spans="1:41" ht="14.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="20" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="80" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
       <c r="AE43" s="27"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
@@ -3654,42 +3763,42 @@
       <c r="AO43" s="10"/>
     </row>
     <row r="44" spans="1:41" ht="14.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="54" t="s">
+      <c r="A44" s="74"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
       <c r="AE44" s="27"/>
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
@@ -3703,42 +3812,42 @@
       <c r="AO44" s="10"/>
     </row>
     <row r="45" spans="1:41" ht="14.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="52" t="s">
+      <c r="A45" s="74"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="84"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
       <c r="AE45" s="27"/>
       <c r="AF45" s="10"/>
       <c r="AG45" s="10"/>
@@ -3752,42 +3861,42 @@
       <c r="AO45" s="10"/>
     </row>
     <row r="46" spans="1:41" ht="14.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="20" t="s">
+      <c r="A46" s="74"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="80" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
       <c r="AE46" s="27"/>
       <c r="AF46" s="10"/>
       <c r="AG46" s="10"/>
@@ -3801,42 +3910,42 @@
       <c r="AO46" s="10"/>
     </row>
     <row r="47" spans="1:41" ht="14.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="20" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="80" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="84"/>
+      <c r="Z47" s="84"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="81"/>
+      <c r="AD47" s="81"/>
       <c r="AE47" s="39"/>
       <c r="AF47" s="10"/>
       <c r="AG47" s="10"/>
@@ -3850,42 +3959,42 @@
       <c r="AO47" s="10"/>
     </row>
     <row r="48" spans="1:41" ht="14.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="74"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="80" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="91"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="84"/>
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
       <c r="AE48" s="39"/>
       <c r="AF48" s="10"/>
       <c r="AG48" s="10"/>
@@ -3899,38 +4008,40 @@
       <c r="AO48" s="10"/>
     </row>
     <row r="49" spans="1:41" ht="14.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="20" t="s">
+      <c r="A49" s="74"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="86"/>
+      <c r="Y49" s="84"/>
+      <c r="Z49" s="84"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="86"/>
       <c r="AE49" s="39"/>
       <c r="AF49" s="10"/>
       <c r="AG49" s="10"/>
@@ -3944,42 +4055,42 @@
       <c r="AO49" s="10"/>
     </row>
     <row r="50" spans="1:41" ht="14.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="93" t="s">
         <v>85</v>
       </c>
       <c r="D50" s="31"/>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="84"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="85"/>
+      <c r="AC50" s="81"/>
+      <c r="AD50" s="81"/>
       <c r="AE50" s="39"/>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
@@ -3993,40 +4104,40 @@
       <c r="AO50" s="10"/>
     </row>
     <row r="51" spans="1:41" ht="14.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="93" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="31"/>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="84"/>
+      <c r="Z51" s="84"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="81"/>
+      <c r="AD51" s="81"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="10"/>
       <c r="AG51" s="10"/>
@@ -4040,40 +4151,40 @@
       <c r="AO51" s="10"/>
     </row>
     <row r="52" spans="1:41" ht="14.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="36" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="93" t="s">
         <v>87</v>
       </c>
       <c r="D52" s="40"/>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="84"/>
+      <c r="Z52" s="84"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="81"/>
+      <c r="AD52" s="81"/>
       <c r="AE52" s="39"/>
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
@@ -4087,40 +4198,40 @@
       <c r="AO52" s="10"/>
     </row>
     <row r="53" spans="1:41" ht="14.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="36" t="s">
+      <c r="A53" s="74"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="93" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="40"/>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="81"/>
+      <c r="AD53" s="81"/>
       <c r="AE53" s="39"/>
       <c r="AF53" s="10"/>
       <c r="AG53" s="10"/>
@@ -4134,40 +4245,40 @@
       <c r="AO53" s="10"/>
     </row>
     <row r="54" spans="1:41" ht="14.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="36" t="s">
+      <c r="A54" s="74"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="93" t="s">
         <v>89</v>
       </c>
       <c r="D54" s="40"/>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="84"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="85"/>
+      <c r="AC54" s="81"/>
+      <c r="AD54" s="81"/>
       <c r="AE54" s="39"/>
       <c r="AF54" s="10"/>
       <c r="AG54" s="10"/>
@@ -4181,42 +4292,42 @@
       <c r="AO54" s="10"/>
     </row>
     <row r="55" spans="1:41" ht="14.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="74" t="s">
+      <c r="A55" s="74"/>
+      <c r="B55" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="31"/>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="81"/>
+      <c r="AD55" s="81"/>
       <c r="AE55" s="39"/>
       <c r="AF55" s="10"/>
       <c r="AG55" s="10"/>
@@ -4230,38 +4341,40 @@
       <c r="AO55" s="10"/>
     </row>
     <row r="56" spans="1:41" ht="14.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="31"/>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="85"/>
+      <c r="AB56" s="85"/>
+      <c r="AC56" s="86"/>
+      <c r="AD56" s="86"/>
       <c r="AE56" s="31"/>
       <c r="AF56" s="10"/>
       <c r="AG56" s="10"/>
@@ -4275,40 +4388,42 @@
       <c r="AO56" s="10"/>
     </row>
     <row r="57" spans="1:41" ht="14.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="35" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="93" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="33"/>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="84"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="86"/>
+      <c r="AD57" s="86"/>
       <c r="AE57" s="31"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="10"/>
@@ -4322,42 +4437,44 @@
       <c r="AO57" s="10"/>
     </row>
     <row r="58" spans="1:41" ht="14.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="74" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="26"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="84"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="86"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="85"/>
+      <c r="AC58" s="85"/>
+      <c r="AD58" s="85"/>
       <c r="AE58" s="27"/>
       <c r="AF58" s="10"/>
       <c r="AG58" s="10"/>
@@ -4371,38 +4488,40 @@
       <c r="AO58" s="10"/>
     </row>
     <row r="59" spans="1:41" ht="14.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="80" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="40"/>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="26"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="85"/>
+      <c r="U59" s="86"/>
+      <c r="V59" s="86"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="89"/>
+      <c r="AB59" s="89"/>
+      <c r="AC59" s="85"/>
+      <c r="AD59" s="85"/>
       <c r="AE59" s="27"/>
       <c r="AF59" s="10"/>
       <c r="AG59" s="10"/>
@@ -4416,41 +4535,42 @@
       <c r="AO59" s="10"/>
     </row>
     <row r="60" spans="1:41" ht="15">
-      <c r="A60" s="72"/>
-      <c r="B60" s="74" t="s">
+      <c r="A60" s="74"/>
+      <c r="B60" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="96" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="40"/>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="26"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="82"/>
+      <c r="V60" s="82"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="86"/>
+      <c r="Y60" s="84"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="89"/>
+      <c r="AB60" s="89"/>
+      <c r="AC60" s="85"/>
+      <c r="AD60" s="85"/>
       <c r="AE60" s="27"/>
       <c r="AF60" s="10"/>
       <c r="AG60" s="10"/>
@@ -4464,40 +4584,41 @@
       <c r="AO60" s="10"/>
     </row>
     <row r="61" spans="1:41" ht="15">
-      <c r="A61" s="73"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="43" t="s">
+      <c r="A61" s="97"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="13" t="s">
+      <c r="D61" s="100"/>
+      <c r="E61" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="26"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="27"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="104"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="102"/>
+      <c r="X61" s="106"/>
+      <c r="Y61" s="103"/>
+      <c r="Z61" s="103"/>
+      <c r="AA61" s="107"/>
+      <c r="AB61" s="107"/>
+      <c r="AC61" s="107"/>
+      <c r="AD61" s="102"/>
+      <c r="AE61" s="108"/>
       <c r="AF61" s="10"/>
       <c r="AG61" s="10"/>
       <c r="AH61" s="10"/>
@@ -4510,16 +4631,16 @@
       <c r="AO61" s="10"/>
     </row>
     <row r="62" spans="1:41" ht="15">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="13"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
@@ -4535,7 +4656,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="25"/>
       <c r="S62" s="25"/>
-      <c r="T62" s="53"/>
+      <c r="T62" s="52"/>
       <c r="U62" s="26"/>
       <c r="V62" s="26"/>
       <c r="W62" s="26"/>
@@ -4559,11 +4680,11 @@
       <c r="AO62" s="10"/>
     </row>
     <row r="63" spans="1:41" ht="15">
-      <c r="A63" s="72"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D63" s="31"/>
@@ -4589,7 +4710,7 @@
       <c r="X63" s="42"/>
       <c r="Y63" s="25"/>
       <c r="Z63" s="25"/>
-      <c r="AA63" s="53"/>
+      <c r="AA63" s="52"/>
       <c r="AB63" s="26"/>
       <c r="AC63" s="42"/>
       <c r="AD63" s="26"/>
@@ -4606,11 +4727,11 @@
       <c r="AO63" s="10"/>
     </row>
     <row r="64" spans="1:41" ht="15">
-      <c r="A64" s="72"/>
-      <c r="B64" s="57" t="s">
+      <c r="A64" s="74"/>
+      <c r="B64" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="55" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="31"/>
@@ -4653,41 +4774,41 @@
       <c r="AO64" s="10"/>
     </row>
     <row r="65" spans="1:41" ht="14.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="63"/>
-      <c r="W65" s="63"/>
-      <c r="X65" s="63"/>
-      <c r="Y65" s="64"/>
-      <c r="Z65" s="64"/>
-      <c r="AA65" s="65"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="66"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="62"/>
+      <c r="AB65" s="62"/>
+      <c r="AC65" s="62"/>
+      <c r="AD65" s="62"/>
+      <c r="AE65" s="63"/>
       <c r="AF65" s="10"/>
       <c r="AG65" s="10"/>
       <c r="AH65" s="10"/>
@@ -44446,13 +44567,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A37:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -44463,6 +44577,13 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E1:E989">
@@ -44504,7 +44625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A063CF13-7CAE-44AE-8C09-21A6EE36C00E}">
   <dimension ref="B4:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -44515,13 +44636,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>99</v>
       </c>
     </row>
@@ -44529,7 +44650,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>100</v>
       </c>
       <c r="D5" t="s">
@@ -44537,21 +44658,21 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="67">
+      <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="66" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="67">
+      <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="67" t="s">
         <v>112</v>
       </c>
       <c r="D7" t="s">
@@ -44559,21 +44680,21 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="67">
+      <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="66" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="67">
+      <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="67" t="s">
         <v>104</v>
       </c>
       <c r="D9" t="s">
@@ -44581,10 +44702,10 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="67">
+      <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="67" t="s">
         <v>106</v>
       </c>
       <c r="D10" t="s">
@@ -44592,10 +44713,10 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="67">
+      <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="67" t="s">
         <v>108</v>
       </c>
       <c r="D11" t="s">
@@ -44603,10 +44724,10 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="67">
+      <c r="B12" s="64">
         <v>8</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>110</v>
       </c>
       <c r="D12" t="s">
@@ -44614,17 +44735,17 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="67">
+      <c r="B13" s="64">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="67">
+      <c r="B14" s="64">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="67">
+      <c r="B15" s="64">
         <v>11</v>
       </c>
     </row>
